--- a/Team-Data/2009-10/10-27-2009-10.xlsx
+++ b/Team-Data/2009-10/10-27-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:BF1"/>
+  <dimension ref="B1:KL1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +716,1206 @@
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>E_OFF_RATING</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>OFF_RATING</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>E_DEF_RATING</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>E_NET_RATING</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>NET_RATING</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>AST_PCT</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>AST_TO</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>AST_RATIO</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>REB_PCT</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>TS_PCT</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>E_PACE</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>PACE</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>PACE_PER40</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>POSS</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>PIE</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>OFF_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>NET_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>AST_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>AST_TO_RANK</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>AST_RATIO_RANK</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>REB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>TS_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>PACE_RANK</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>PIE_RANK</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>FTA_RATE</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_EFG_PCT</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA_RATE</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV_PCT</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB_PCT</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>EFG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>FTA_RATE_RANK</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>TM_TOV_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>OREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_EFG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA_RATE_RANK</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_2ND_CHANCE</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_FB</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_2ND_CHANCE_RANK</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE_RANK</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_2PT</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_3PT</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT_MR</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_3PT</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FB</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FT</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_2PM</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_2PM</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_3PM</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_3PM</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_FGM</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_FGM</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_2PT_RANK</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_FGA_3PT_RANK</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT_RANK</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_2PT_MR_RANK</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_3PT_RANK</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_FT_RANK</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_2PM_RANK</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_2PM_RANK</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_3PM_RANK</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_3PM_RANK</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_AST_FGM_RANK</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>PCT_UAST_FGM_RANK</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>DREB</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>DEF_RATING_RANK</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_RANK</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>DREB_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>STL_RANK</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>BLK_RANK</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_OFF_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_2ND_CHANCE_RANK</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_FB_RANK</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_PAINT_RANK</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_ID</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGM</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGA</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG_PCT</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3M</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3A</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3_PCT</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTM</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FT_PCT</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_DREB</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_REB</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_AST</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_STL</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLK</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLKA</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PF</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PFD</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>PLUS_MINUS</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>GP_RANK</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>W_RANK</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>L_RANK</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>W_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_RANK</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGM_RANK</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FGA_RANK</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3M_RANK</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3A_RANK</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FG3_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTM_RANK</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FTA_RANK</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_FT_PCT_RANK</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_OREB_RANK</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_DREB_RANK</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_REB_RANK</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_AST_RANK</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_TOV_RANK</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_STL_RANK</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLK_RANK</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_BLKA_RANK</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PF_RANK</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PFD_RANK</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>OPP_PTS_RANK</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>PLUS_MINUS_RANK</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>CFID</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>CFPARAMS</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>

--- a/Team-Data/2009-10/10-27-2009-10.xlsx
+++ b/Team-Data/2009-10/10-27-2009-10.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
